--- a/pabi_account_special_project/xlsx_template/special_project.xlsx
+++ b/pabi_account_special_project/xlsx_template/special_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">Line Number</t>
   </si>
@@ -52,10 +52,7 @@
     <t xml:space="preserve">Credit</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20150930</t>
+    <t xml:space="preserve">20/05/2017</t>
   </si>
   <si>
     <t xml:space="preserve">TB_DECC_SEP 2015_2</t>
@@ -188,10 +185,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -327,23 +325,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,21 +433,21 @@
   </sheetPr>
   <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="13.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="3" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="3" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,28 +457,28 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="ALG1" s="3"/>
@@ -516,28 +514,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>42885</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>100</v>
@@ -546,28 +544,28 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>42885</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="3" t="n">
@@ -576,28 +574,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>42885</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>100</v>

--- a/pabi_account_special_project/xlsx_template/special_project.xlsx
+++ b/pabi_account_special_project/xlsx_template/special_project.xlsx
@@ -20,29 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t xml:space="preserve">Line Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Doc. Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header Reference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Line Description</t>
   </si>
   <si>
     <t xml:space="preserve">GL Code</t>
   </si>
   <si>
-    <t xml:space="preserve">GL Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section/Costcenter</t>
   </si>
   <si>
@@ -52,144 +40,71 @@
     <t xml:space="preserve">Credit</t>
   </si>
   <si>
-    <t xml:space="preserve">20/05/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB_DECC_SEP 2015_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECC- 09.2015_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000000000</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ค่าเผื่อหนี้สูญ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IN</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">101012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB_DECC_SEP 2015_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECC- 09.2015_3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Accu.Dep-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ปป</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">อาคาร </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IN</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB_DECC_SEP 2015_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECC- 09.2015_4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Acc.Dep- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">สำนักงาน </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IN</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">101014</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">งบทดลอง 902001-xxx ประจำเดือน พ.ย.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -243,6 +158,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -300,7 +216,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,39 +225,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,8 +257,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -431,33 +343,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="3" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.09716599190283"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1020" min="7" style="2" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="31.587044534413"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -469,137 +380,414 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="ALC1" s="2"/>
+      <c r="ALD1" s="2"/>
+      <c r="ALE1" s="2"/>
+      <c r="ALF1" s="2"/>
+      <c r="ALG1" s="2"/>
+      <c r="ALH1" s="2"/>
+      <c r="ALI1" s="2"/>
+      <c r="ALJ1" s="2"/>
+      <c r="ALK1" s="2"/>
+      <c r="ALL1" s="2"/>
+      <c r="ALM1" s="2"/>
+      <c r="ALN1" s="2"/>
+      <c r="ALO1" s="2"/>
+      <c r="ALP1" s="2"/>
+      <c r="ALQ1" s="2"/>
+      <c r="ALR1" s="2"/>
+      <c r="ALS1" s="2"/>
+      <c r="ALT1" s="2"/>
+      <c r="ALU1" s="2"/>
+      <c r="ALV1" s="2"/>
+      <c r="ALW1" s="2"/>
+      <c r="ALX1" s="2"/>
+      <c r="ALY1" s="2"/>
+      <c r="ALZ1" s="2"/>
+      <c r="AMA1" s="2"/>
+      <c r="AMB1" s="2"/>
+      <c r="AMC1" s="2"/>
+      <c r="AMD1" s="2"/>
+      <c r="AME1" s="2"/>
+      <c r="AMF1" s="2"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>11010107</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="ALG1" s="3"/>
-      <c r="ALH1" s="3"/>
-      <c r="ALI1" s="3"/>
-      <c r="ALJ1" s="3"/>
-      <c r="ALK1" s="3"/>
-      <c r="ALL1" s="3"/>
-      <c r="ALM1" s="3"/>
-      <c r="ALN1" s="3"/>
-      <c r="ALO1" s="3"/>
-      <c r="ALP1" s="3"/>
-      <c r="ALQ1" s="3"/>
-      <c r="ALR1" s="3"/>
-      <c r="ALS1" s="3"/>
-      <c r="ALT1" s="3"/>
-      <c r="ALU1" s="3"/>
-      <c r="ALV1" s="3"/>
-      <c r="ALW1" s="3"/>
-      <c r="ALX1" s="3"/>
-      <c r="ALY1" s="3"/>
-      <c r="ALZ1" s="3"/>
-      <c r="AMA1" s="3"/>
-      <c r="AMB1" s="3"/>
-      <c r="AMC1" s="3"/>
-      <c r="AMD1" s="3"/>
-      <c r="AME1" s="3"/>
-      <c r="AMF1" s="3"/>
-      <c r="AMG1" s="3"/>
-      <c r="AMH1" s="3"/>
-      <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>42885</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>11010691</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>11020151</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>11020153</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>11050151</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>21010151</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>21030101</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>42885</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>21060151</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>31010104</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>31010111</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>34010101</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>42885</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>42010101</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>51010102</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>51030101</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>52010101</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>100</v>
-      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>52030101</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>52040101</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
